--- a/runs/run939/NotionalETEOutput939.xlsx
+++ b/runs/run939/NotionalETEOutput939.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_HELLMASKER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_355.MISSILE_ANGERMAX0_355</t>
+    <t>MISSILE_HELLMASKER3_286.MISSILE_HELLMASKER3_286</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_HELLMASKER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1447.854238336331</v>
+        <v>-1476.406461783803</v>
       </c>
       <c r="J2">
-        <v>2008.118806335867</v>
+        <v>1980.084761414925</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1410.24680500017</v>
+        <v>-1477.740774910552</v>
       </c>
       <c r="J3">
-        <v>1882.523663474975</v>
+        <v>1893.620613730197</v>
       </c>
       <c r="K3">
-        <v>311.3597976970068</v>
+        <v>312.8175608260437</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1368.50644853974</v>
+        <v>-1448.704789367987</v>
       </c>
       <c r="J4">
-        <v>1930.097534931783</v>
+        <v>1927.453986477862</v>
       </c>
       <c r="K4">
-        <v>621.0385879107714</v>
+        <v>618.7052002481375</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1442.105840456049</v>
+        <v>-1359.029719991765</v>
       </c>
       <c r="J5">
-        <v>1862.171855057344</v>
+        <v>1879.972497198656</v>
       </c>
       <c r="K5">
-        <v>890.976764679293</v>
+        <v>837.6253254074342</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1373.077349767766</v>
+        <v>-1311.190277007752</v>
       </c>
       <c r="J6">
-        <v>1727.019487909831</v>
+        <v>1741.77372364697</v>
       </c>
       <c r="K6">
-        <v>1094.956474629667</v>
+        <v>1080.897415720015</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1386.620463665359</v>
+        <v>-1337.035598217489</v>
       </c>
       <c r="J7">
-        <v>1793.820096684922</v>
+        <v>1706.79956309646</v>
       </c>
       <c r="K7">
-        <v>1412.514064040277</v>
+        <v>1389.141772371388</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1255.926237852121</v>
+        <v>-1296.887611481086</v>
       </c>
       <c r="J8">
-        <v>1738.071471322144</v>
+        <v>1759.951957926717</v>
       </c>
       <c r="K8">
-        <v>1641.402239989755</v>
+        <v>1668.826085219518</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.3117044488864</v>
+        <v>-95.30432250327463</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1246.059982038079</v>
+        <v>-1323.828552625118</v>
       </c>
       <c r="J9">
-        <v>1642.632163931535</v>
+        <v>1660.433893066235</v>
       </c>
       <c r="K9">
-        <v>1820.390954521641</v>
+        <v>1760.698486416771</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.182927071066</v>
+        <v>214.0493922856442</v>
       </c>
       <c r="G10">
-        <v>-84.93553445590487</v>
+        <v>-86.8203931879038</v>
       </c>
       <c r="H10">
-        <v>853.989351448081</v>
+        <v>859.6219718866029</v>
       </c>
       <c r="I10">
-        <v>-1278.558333868148</v>
+        <v>-1236.514277064668</v>
       </c>
       <c r="J10">
-        <v>1608.985347726339</v>
+        <v>1553.019087920237</v>
       </c>
       <c r="K10">
-        <v>1997.957069980382</v>
+        <v>2044.536554082851</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>167.2588959142095</v>
+        <v>175.0416292233718</v>
       </c>
       <c r="G11">
-        <v>-65.46566654908696</v>
+        <v>-69.53839413156575</v>
       </c>
       <c r="H11">
-        <v>1063.400659794615</v>
+        <v>1057.693275293729</v>
       </c>
       <c r="I11">
-        <v>-1253.144021916014</v>
+        <v>-1218.443213736152</v>
       </c>
       <c r="J11">
-        <v>1509.503010663543</v>
+        <v>1594.436330460237</v>
       </c>
       <c r="K11">
-        <v>2199.314222045964</v>
+        <v>2257.535720369503</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.8361285139846</v>
+        <v>135.3996600931408</v>
       </c>
       <c r="G12">
-        <v>-49.47130443494971</v>
+        <v>-50.82791268957328</v>
       </c>
       <c r="H12">
-        <v>1214.442241439506</v>
+        <v>1121.961102535082</v>
       </c>
       <c r="I12">
-        <v>-1160.649910892967</v>
+        <v>-1156.422054050347</v>
       </c>
       <c r="J12">
-        <v>1471.692201932399</v>
+        <v>1557.276173908538</v>
       </c>
       <c r="K12">
-        <v>2333.194614469051</v>
+        <v>2380.08037489465</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.684187914266</v>
+        <v>118.6323894147893</v>
       </c>
       <c r="G13">
-        <v>-35.46975496582098</v>
+        <v>-34.14770366821779</v>
       </c>
       <c r="H13">
-        <v>1286.895005460644</v>
+        <v>1218.673943892823</v>
       </c>
       <c r="I13">
-        <v>-1142.967366901</v>
+        <v>-1178.336816266364</v>
       </c>
       <c r="J13">
-        <v>1536.578532278037</v>
+        <v>1489.981274211204</v>
       </c>
       <c r="K13">
-        <v>2392.800140874802</v>
+        <v>2414.417758525406</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.0527334187544</v>
+        <v>111.7879523619852</v>
       </c>
       <c r="G14">
-        <v>-17.71577464952306</v>
+        <v>-16.69084855896154</v>
       </c>
       <c r="H14">
-        <v>1264.851332483601</v>
+        <v>1293.273679903117</v>
       </c>
       <c r="I14">
-        <v>-1129.046131506885</v>
+        <v>-1090.204455443365</v>
       </c>
       <c r="J14">
-        <v>1478.38918380637</v>
+        <v>1349.826499814294</v>
       </c>
       <c r="K14">
-        <v>2632.606794596979</v>
+        <v>2580.317890955379</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.6226754660769</v>
+        <v>101.8916686671798</v>
       </c>
       <c r="G15">
-        <v>-0.9366854524310725</v>
+        <v>-0.9361066032082352</v>
       </c>
       <c r="H15">
-        <v>1376.954691993606</v>
+        <v>1403.505321149222</v>
       </c>
       <c r="I15">
-        <v>-1030.334116640809</v>
+        <v>-1076.279223177135</v>
       </c>
       <c r="J15">
-        <v>1375.388069150622</v>
+        <v>1404.868925218414</v>
       </c>
       <c r="K15">
-        <v>2746.291093767062</v>
+        <v>2633.524184918998</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.49796235287509</v>
+        <v>89.06146538655945</v>
       </c>
       <c r="G16">
-        <v>15.52650199915902</v>
+        <v>16.21675548320207</v>
       </c>
       <c r="H16">
-        <v>1454.332148119619</v>
+        <v>1428.560483739388</v>
       </c>
       <c r="I16">
-        <v>-1018.734430101969</v>
+        <v>-1038.265433955875</v>
       </c>
       <c r="J16">
-        <v>1333.558093821389</v>
+        <v>1335.91160820804</v>
       </c>
       <c r="K16">
-        <v>2797.139473392437</v>
+        <v>2864.425225895422</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.24018348014145</v>
+        <v>86.04988056509795</v>
       </c>
       <c r="G17">
-        <v>31.58824288061026</v>
+        <v>33.28118550237706</v>
       </c>
       <c r="H17">
-        <v>1431.334833748602</v>
+        <v>1416.86463880297</v>
       </c>
       <c r="I17">
-        <v>-979.280730921324</v>
+        <v>-980.7342065646908</v>
       </c>
       <c r="J17">
-        <v>1279.980583556322</v>
+        <v>1281.573729798443</v>
       </c>
       <c r="K17">
-        <v>2950.354890918213</v>
+        <v>3065.957782752091</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.60722855202999</v>
+        <v>79.03213576206301</v>
       </c>
       <c r="G18">
-        <v>48.78507009800402</v>
+        <v>47.86854603655608</v>
       </c>
       <c r="H18">
-        <v>1443.01274286034</v>
+        <v>1491.692621596761</v>
       </c>
       <c r="I18">
-        <v>-919.217807454532</v>
+        <v>-969.6431547379095</v>
       </c>
       <c r="J18">
-        <v>1242.751649034987</v>
+        <v>1233.887270488377</v>
       </c>
       <c r="K18">
-        <v>3093.111684755116</v>
+        <v>3156.278439263915</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.5525650494347</v>
+        <v>76.92710929523794</v>
       </c>
       <c r="G19">
-        <v>62.92752762990703</v>
+        <v>65.40132181025105</v>
       </c>
       <c r="H19">
-        <v>1549.27194684588</v>
+        <v>1473.148346641268</v>
       </c>
       <c r="I19">
-        <v>-922.0129682734411</v>
+        <v>-925.282709660215</v>
       </c>
       <c r="J19">
-        <v>1171.395213162654</v>
+        <v>1195.697577521032</v>
       </c>
       <c r="K19">
-        <v>3209.646945642138</v>
+        <v>3242.408417991126</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.00092026740455</v>
+        <v>75.34487982519867</v>
       </c>
       <c r="G20">
-        <v>79.81383339627949</v>
+        <v>81.05580013247575</v>
       </c>
       <c r="H20">
-        <v>1633.058803854909</v>
+        <v>1591.721633164526</v>
       </c>
       <c r="I20">
-        <v>-845.0757338106376</v>
+        <v>-804.2906046035357</v>
       </c>
       <c r="J20">
-        <v>1125.409592685197</v>
+        <v>1168.194962872429</v>
       </c>
       <c r="K20">
-        <v>3141.0997734488</v>
+        <v>3210.99355169436</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.23494722609075</v>
+        <v>71.7043446447351</v>
       </c>
       <c r="G21">
-        <v>101.9784109210157</v>
+        <v>100.7803525848202</v>
       </c>
       <c r="H21">
-        <v>1533.991849665573</v>
+        <v>1543.861965834642</v>
       </c>
       <c r="I21">
-        <v>-784.858931185572</v>
+        <v>-818.9522865417508</v>
       </c>
       <c r="J21">
-        <v>1084.274753470695</v>
+        <v>1055.120383778118</v>
       </c>
       <c r="K21">
-        <v>3214.349219998333</v>
+        <v>3294.34528203085</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.79263401859968</v>
+        <v>71.19659838372843</v>
       </c>
       <c r="G22">
-        <v>120.0128976053268</v>
+        <v>109.5240572282438</v>
       </c>
       <c r="H22">
-        <v>1627.849180291456</v>
+        <v>1550.154111825325</v>
       </c>
       <c r="I22">
-        <v>-731.513383025404</v>
+        <v>-759.6725086010166</v>
       </c>
       <c r="J22">
-        <v>1059.309344656853</v>
+        <v>1044.327371714767</v>
       </c>
       <c r="K22">
-        <v>3245.868187215691</v>
+        <v>3049.296107112728</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.77225315158607</v>
+        <v>68.76570670180435</v>
       </c>
       <c r="G23">
-        <v>130.0592830776763</v>
+        <v>137.2657883240556</v>
       </c>
       <c r="H23">
-        <v>1701.756626562719</v>
+        <v>1587.674284873693</v>
       </c>
       <c r="I23">
-        <v>-683.138208826439</v>
+        <v>-692.679645637411</v>
       </c>
       <c r="J23">
-        <v>1017.891794570477</v>
+        <v>958.1937876084086</v>
       </c>
       <c r="K23">
-        <v>3232.96704716192</v>
+        <v>3339.956511762487</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.54778462345142</v>
+        <v>66.47168225472214</v>
       </c>
       <c r="G24">
-        <v>142.490835557631</v>
+        <v>143.6461742707473</v>
       </c>
       <c r="H24">
-        <v>1620.802555783232</v>
+        <v>1576.620216296311</v>
       </c>
       <c r="I24">
-        <v>-647.9871657510929</v>
+        <v>-672.4317251602934</v>
       </c>
       <c r="J24">
-        <v>951.4182601453524</v>
+        <v>948.5155989908518</v>
       </c>
       <c r="K24">
-        <v>3073.056911470571</v>
+        <v>3123.935653045457</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.23558604476089</v>
+        <v>59.65370585701906</v>
       </c>
       <c r="G25">
-        <v>162.6794698015324</v>
+        <v>161.22326220839</v>
       </c>
       <c r="H25">
-        <v>1731.722517866746</v>
+        <v>1623.237516315502</v>
       </c>
       <c r="I25">
-        <v>-598.8689768650589</v>
+        <v>-589.9746060487406</v>
       </c>
       <c r="J25">
-        <v>876.4746814726283</v>
+        <v>918.673918780844</v>
       </c>
       <c r="K25">
-        <v>3152.929968243615</v>
+        <v>3034.047839705544</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.11550281489956</v>
+        <v>57.651631172654</v>
       </c>
       <c r="G26">
-        <v>184.9840336157676</v>
+        <v>189.2177961586175</v>
       </c>
       <c r="H26">
-        <v>1714.705538116174</v>
+        <v>1685.753539831487</v>
       </c>
       <c r="I26">
-        <v>-568.7472455082739</v>
+        <v>-525.4283098463919</v>
       </c>
       <c r="J26">
-        <v>822.9902864980776</v>
+        <v>857.5003109538111</v>
       </c>
       <c r="K26">
-        <v>2994.567539544438</v>
+        <v>3195.093738514955</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.77101748346722</v>
+        <v>60.61079569135686</v>
       </c>
       <c r="G27">
-        <v>195.2138287706854</v>
+        <v>187.9869672196092</v>
       </c>
       <c r="H27">
-        <v>1700.601695200663</v>
+        <v>1639.502698198341</v>
       </c>
       <c r="I27">
-        <v>-483.9016313703484</v>
+        <v>-500.2820766166607</v>
       </c>
       <c r="J27">
-        <v>777.0233388856474</v>
+        <v>800.6663158829866</v>
       </c>
       <c r="K27">
-        <v>3109.820739633709</v>
+        <v>2993.349735279496</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.70798715958021</v>
+        <v>56.03814815302013</v>
       </c>
       <c r="G28">
-        <v>219.7037465374659</v>
+        <v>217.6015062452847</v>
       </c>
       <c r="H28">
-        <v>1756.853334557015</v>
+        <v>1710.702592295518</v>
       </c>
       <c r="I28">
-        <v>-424.3515016301361</v>
+        <v>-456.0470526666577</v>
       </c>
       <c r="J28">
-        <v>698.4344530354778</v>
+        <v>752.5231216345011</v>
       </c>
       <c r="K28">
-        <v>3045.986168530501</v>
+        <v>2974.269893964931</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.75599433267282</v>
+        <v>56.58148168802074</v>
       </c>
       <c r="G29">
-        <v>232.6743298023676</v>
+        <v>228.9968147058269</v>
       </c>
       <c r="H29">
-        <v>1678.804334708665</v>
+        <v>1792.140136888104</v>
       </c>
       <c r="I29">
-        <v>-381.3267144017218</v>
+        <v>-372.9221203713988</v>
       </c>
       <c r="J29">
-        <v>685.0141042504443</v>
+        <v>674.6525386975165</v>
       </c>
       <c r="K29">
-        <v>2922.009295723276</v>
+        <v>2794.379776126319</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.90011497415978</v>
+        <v>51.2753384668949</v>
       </c>
       <c r="G30">
-        <v>251.7728630586928</v>
+        <v>256.2082264573878</v>
       </c>
       <c r="H30">
-        <v>1714.697137947042</v>
+        <v>1817.086122444695</v>
       </c>
       <c r="I30">
-        <v>-334.7758633781006</v>
+        <v>-330.5197626614099</v>
       </c>
       <c r="J30">
-        <v>605.9751349972084</v>
+        <v>612.0851157664292</v>
       </c>
       <c r="K30">
-        <v>2693.229826669766</v>
+        <v>2685.173936656427</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.18546374726594</v>
+        <v>53.629616456353</v>
       </c>
       <c r="G31">
-        <v>253.1089638272665</v>
+        <v>272.1545351850224</v>
       </c>
       <c r="H31">
-        <v>1824.118133465823</v>
+        <v>1838.868710442985</v>
       </c>
       <c r="I31">
-        <v>-258.6530135907292</v>
+        <v>-256.5337929816705</v>
       </c>
       <c r="J31">
-        <v>604.8399288259761</v>
+        <v>580.1645665636014</v>
       </c>
       <c r="K31">
-        <v>2618.542853128682</v>
+        <v>2527.355393293019</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.7538061469331</v>
+        <v>52.65009527348055</v>
       </c>
       <c r="G32">
-        <v>280.6585533889818</v>
+        <v>274.9437182988372</v>
       </c>
       <c r="H32">
-        <v>1778.726496378604</v>
+        <v>1769.209457012177</v>
       </c>
       <c r="I32">
-        <v>-208.4928942920333</v>
+        <v>-206.5916825211491</v>
       </c>
       <c r="J32">
-        <v>523.0031053946723</v>
+        <v>566.3967969132285</v>
       </c>
       <c r="K32">
-        <v>2494.30116989535</v>
+        <v>2618.931069886601</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.66193641628477</v>
+        <v>51.60810546913561</v>
       </c>
       <c r="G33">
-        <v>306.0764234796069</v>
+        <v>306.7185251258728</v>
       </c>
       <c r="H33">
-        <v>1826.034375702941</v>
+        <v>1801.140378058661</v>
       </c>
       <c r="I33">
-        <v>-151.8375582505934</v>
+        <v>-153.2391887257602</v>
       </c>
       <c r="J33">
-        <v>471.189662555978</v>
+        <v>475.6669411268458</v>
       </c>
       <c r="K33">
-        <v>2480.160592971115</v>
+        <v>2459.327106644239</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.47746667663279</v>
+        <v>50.02031897326545</v>
       </c>
       <c r="G34">
-        <v>320.1955567943743</v>
+        <v>297.2652265799879</v>
       </c>
       <c r="H34">
-        <v>1848.225254896681</v>
+        <v>1838.306876560331</v>
       </c>
       <c r="I34">
-        <v>-80.18071847365486</v>
+        <v>-79.22484930191126</v>
       </c>
       <c r="J34">
-        <v>426.4680708313761</v>
+        <v>464.6641705509043</v>
       </c>
       <c r="K34">
-        <v>2154.340617664139</v>
+        <v>2207.908694670645</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.37245869291594</v>
+        <v>46.2140148467379</v>
       </c>
       <c r="G35">
-        <v>345.706502391108</v>
+        <v>314.8465288268442</v>
       </c>
       <c r="H35">
-        <v>1841.627175472772</v>
+        <v>1895.775663496604</v>
       </c>
       <c r="I35">
-        <v>-17.97737356203142</v>
+        <v>-18.97766218117987</v>
       </c>
       <c r="J35">
-        <v>411.5072848353649</v>
+        <v>386.5165497290595</v>
       </c>
       <c r="K35">
-        <v>2022.593630264459</v>
+        <v>2026.039516394519</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.07273960853146</v>
+        <v>47.15308618387058</v>
       </c>
       <c r="G36">
-        <v>341.7058822068546</v>
+        <v>339.2585193002393</v>
       </c>
       <c r="H36">
-        <v>1794.926676131698</v>
+        <v>1860.837494958142</v>
       </c>
       <c r="I36">
-        <v>47.54704738425133</v>
+        <v>48.252776730306</v>
       </c>
       <c r="J36">
-        <v>353.1557020556</v>
+        <v>335.7513415851374</v>
       </c>
       <c r="K36">
-        <v>1885.126081585048</v>
+        <v>1909.448205927698</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.80821148756772</v>
+        <v>48.17266136187095</v>
       </c>
       <c r="G37">
-        <v>352.8174811783294</v>
+        <v>349.3284136612079</v>
       </c>
       <c r="H37">
-        <v>1833.742377928924</v>
+        <v>1800.995386724432</v>
       </c>
       <c r="I37">
-        <v>109.3192129290032</v>
+        <v>111.0868211097864</v>
       </c>
       <c r="J37">
-        <v>294.7177692886841</v>
+        <v>290.6131879591994</v>
       </c>
       <c r="K37">
-        <v>1645.449666643318</v>
+        <v>1608.46488604298</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.88695077408762</v>
+        <v>46.82383460194596</v>
       </c>
       <c r="G38">
-        <v>378.8224552282449</v>
+        <v>371.1872862929404</v>
       </c>
       <c r="H38">
-        <v>1873.671842282312</v>
+        <v>1811.729218595725</v>
       </c>
       <c r="I38">
-        <v>188.828432239475</v>
+        <v>180.9960364033451</v>
       </c>
       <c r="J38">
-        <v>260.7421809584285</v>
+        <v>256.699825832909</v>
       </c>
       <c r="K38">
-        <v>1455.946200610584</v>
+        <v>1428.719695567359</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.83597306580363</v>
+        <v>45.13797289884926</v>
       </c>
       <c r="G39">
-        <v>381.9622231392864</v>
+        <v>414.3266172665911</v>
       </c>
       <c r="H39">
-        <v>1848.750058441013</v>
+        <v>1854.97198044299</v>
       </c>
       <c r="I39">
-        <v>247.1697991646285</v>
+        <v>255.5563655366052</v>
       </c>
       <c r="J39">
-        <v>197.6652480153045</v>
+        <v>190.9063796637211</v>
       </c>
       <c r="K39">
-        <v>1170.90701025774</v>
+        <v>1097.682059326199</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.58085832333508</v>
+        <v>46.1550122468672</v>
       </c>
       <c r="G40">
-        <v>415.4954727594485</v>
+        <v>398.5459516471611</v>
       </c>
       <c r="H40">
-        <v>1789.61745342987</v>
+        <v>1916.090732802186</v>
       </c>
       <c r="I40">
-        <v>338.0402701467743</v>
+        <v>336.8876181709823</v>
       </c>
       <c r="J40">
-        <v>147.6401872815232</v>
+        <v>148.7900189653441</v>
       </c>
       <c r="K40">
-        <v>861.4153951173128</v>
+        <v>854.7583939292418</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.78232444111684</v>
+        <v>42.06361046467349</v>
       </c>
       <c r="G41">
-        <v>417.532846942862</v>
+        <v>411.9503517774377</v>
       </c>
       <c r="H41">
-        <v>1812.513095311065</v>
+        <v>1972.141861893647</v>
       </c>
       <c r="I41">
-        <v>414.6424825011263</v>
+        <v>396.7976181042846</v>
       </c>
       <c r="J41">
-        <v>100.9234433162263</v>
+        <v>106.3370168973884</v>
       </c>
       <c r="K41">
-        <v>635.7525019894397</v>
+        <v>642.9615065030981</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.83980661977872</v>
+        <v>43.2795000438017</v>
       </c>
       <c r="G42">
-        <v>436.390638510326</v>
+        <v>451.000222997823</v>
       </c>
       <c r="H42">
-        <v>1973.36796404723</v>
+        <v>1840.400599716079</v>
       </c>
       <c r="I42">
-        <v>502.1721928086683</v>
+        <v>490.9300941158386</v>
       </c>
       <c r="J42">
-        <v>53.75215755871677</v>
+        <v>52.35023213896424</v>
       </c>
       <c r="K42">
-        <v>323.4983377699527</v>
+        <v>331.0604981388491</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.42619172942693</v>
+        <v>41.78382741470935</v>
       </c>
       <c r="G43">
-        <v>468.6606004103794</v>
+        <v>441.8017960061213</v>
       </c>
       <c r="H43">
-        <v>1985.478592244602</v>
+        <v>1835.601402733217</v>
       </c>
       <c r="I43">
-        <v>584.6752686280365</v>
+        <v>539.8202079995423</v>
       </c>
       <c r="J43">
-        <v>5.374807470281934</v>
+        <v>5.2883833904603</v>
       </c>
       <c r="K43">
-        <v>32.35253590129741</v>
+        <v>34.25691935849347</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.59962251331827</v>
+        <v>40.19469183197055</v>
       </c>
       <c r="G44">
-        <v>487.7666795528513</v>
+        <v>485.9378202994956</v>
       </c>
       <c r="H44">
-        <v>1963.484970731098</v>
+        <v>1872.723635810964</v>
       </c>
       <c r="I44">
-        <v>607.2166469074102</v>
+        <v>637.0935361390523</v>
       </c>
       <c r="J44">
-        <v>-41.25233925626484</v>
+        <v>-41.68618038228294</v>
       </c>
       <c r="K44">
-        <v>-281.9914448473142</v>
+        <v>-276.0603604940479</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.82238310257547</v>
+        <v>42.5747773797321</v>
       </c>
       <c r="G45">
-        <v>472.7717323828474</v>
+        <v>515.6786783554472</v>
       </c>
       <c r="H45">
-        <v>1922.045308820179</v>
+        <v>1969.807676531364</v>
       </c>
       <c r="I45">
-        <v>693.7723609165569</v>
+        <v>745.5645283667444</v>
       </c>
       <c r="J45">
-        <v>-88.65070851107659</v>
+        <v>-91.91401913038364</v>
       </c>
       <c r="K45">
-        <v>-613.681659549773</v>
+        <v>-628.7130148104723</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.85313379034515</v>
+        <v>39.48752122488757</v>
       </c>
       <c r="G46">
-        <v>519.8924890806968</v>
+        <v>527.1803155203947</v>
       </c>
       <c r="H46">
-        <v>1962.814631912902</v>
+        <v>1889.228124593119</v>
       </c>
       <c r="I46">
-        <v>787.189148025568</v>
+        <v>844.8625317065862</v>
       </c>
       <c r="J46">
-        <v>-140.7602795276571</v>
+        <v>-143.0118688590884</v>
       </c>
       <c r="K46">
-        <v>-942.8541335369603</v>
+        <v>-987.5815864216753</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.83308502414216</v>
+        <v>41.24446969827343</v>
       </c>
       <c r="G47">
-        <v>514.1461721875897</v>
+        <v>507.6065440691329</v>
       </c>
       <c r="H47">
-        <v>1929.902931192809</v>
+        <v>1928.713984535849</v>
       </c>
       <c r="I47">
-        <v>896.8672757026137</v>
+        <v>894.9230874995476</v>
       </c>
       <c r="J47">
-        <v>-188.0105451494581</v>
+        <v>-187.6114397780132</v>
       </c>
       <c r="K47">
-        <v>-1326.268248323345</v>
+        <v>-1277.360545109565</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.15556452157733</v>
+        <v>37.83383463879257</v>
       </c>
       <c r="G48">
-        <v>531.6268851161049</v>
+        <v>526.4293251866466</v>
       </c>
       <c r="H48">
-        <v>1857.254575796609</v>
+        <v>1855.62792935265</v>
       </c>
       <c r="I48">
-        <v>1000.806201254081</v>
+        <v>1020.513056227303</v>
       </c>
       <c r="J48">
-        <v>-242.2750965140681</v>
+        <v>-248.1190912014934</v>
       </c>
       <c r="K48">
-        <v>-1702.735080589651</v>
+        <v>-1719.649490822875</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.59982826639792</v>
+        <v>37.27125129650121</v>
       </c>
       <c r="G49">
-        <v>534.0202754161352</v>
+        <v>571.311466627091</v>
       </c>
       <c r="H49">
-        <v>1967.517137604946</v>
+        <v>1899.145964736489</v>
       </c>
       <c r="I49">
-        <v>1087.052311280856</v>
+        <v>1060.215310731795</v>
       </c>
       <c r="J49">
-        <v>-287.9069288611222</v>
+        <v>-278.1971824538173</v>
       </c>
       <c r="K49">
-        <v>-2031.411950528091</v>
+        <v>-2114.23151431479</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.41151489156715</v>
+        <v>38.43065573856909</v>
       </c>
       <c r="G50">
-        <v>580.3274693268403</v>
+        <v>588.1410364919859</v>
       </c>
       <c r="H50">
-        <v>1877.575979276414</v>
+        <v>2000.522633031136</v>
       </c>
       <c r="I50">
-        <v>1110.345311364898</v>
+        <v>1208.81800124448</v>
       </c>
       <c r="J50">
-        <v>-319.9335531821309</v>
+        <v>-326.2995014257754</v>
       </c>
       <c r="K50">
-        <v>-2542.101514534738</v>
+        <v>-2530.237430845589</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.76272253061244</v>
+        <v>38.66440562509214</v>
       </c>
       <c r="G51">
-        <v>574.782557807972</v>
+        <v>585.1487932635079</v>
       </c>
       <c r="H51">
-        <v>1943.430825298899</v>
+        <v>1934.861775012527</v>
       </c>
       <c r="I51">
-        <v>1260.556454015786</v>
+        <v>1284.185626739893</v>
       </c>
       <c r="J51">
-        <v>-402.4488955050368</v>
+        <v>-373.9799990361259</v>
       </c>
       <c r="K51">
-        <v>-3044.845212509722</v>
+        <v>-2860.013731071413</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.46522300703986</v>
+        <v>38.53050626738182</v>
       </c>
       <c r="G52">
-        <v>598.8080327999724</v>
+        <v>602.935578775561</v>
       </c>
       <c r="H52">
-        <v>1982.096713495044</v>
+        <v>2013.423682261003</v>
       </c>
       <c r="I52">
-        <v>1306.636845916035</v>
+        <v>1400.446871174466</v>
       </c>
       <c r="J52">
-        <v>-417.9533609216708</v>
+        <v>-426.4626289039168</v>
       </c>
       <c r="K52">
-        <v>-3460.350892850896</v>
+        <v>-3230.297771534199</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.87433427881896</v>
+        <v>37.22268596005873</v>
       </c>
       <c r="G53">
-        <v>622.427189329977</v>
+        <v>647.8918906619333</v>
       </c>
       <c r="H53">
-        <v>1960.688126894762</v>
+        <v>1878.827592548625</v>
       </c>
       <c r="I53">
-        <v>1474.414996028324</v>
+        <v>1424.691525203421</v>
       </c>
       <c r="J53">
-        <v>-478.1226046230211</v>
+        <v>-489.1812986576402</v>
       </c>
       <c r="K53">
-        <v>-3967.229470523283</v>
+        <v>-3824.203699051947</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.48982312874147</v>
+        <v>36.23693952517117</v>
       </c>
       <c r="G54">
-        <v>654.4686473445663</v>
+        <v>638.0541674025594</v>
       </c>
       <c r="H54">
-        <v>1947.220545643345</v>
+        <v>1886.729114604034</v>
       </c>
       <c r="I54">
-        <v>1632.893768425669</v>
+        <v>1525.631460447455</v>
       </c>
       <c r="J54">
-        <v>-552.9565198393148</v>
+        <v>-504.1649724326726</v>
       </c>
       <c r="K54">
-        <v>-4468.832462855481</v>
+        <v>-4173.531261355034</v>
       </c>
     </row>
   </sheetData>
